--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_05.31.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_05.31.19.xlsx
@@ -1,82 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="s1CDNASample_J.PLAGGENBERG_05.3" sheetId="1" r:id="rId3"/>
+    <sheet name="s1CDNASample_J.PLAGGENBERG_05.3" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="17">
   <si>
-    <t>rnaDate</t>
-  </si>
-  <si>
-    <t>rnaPreparer</t>
-  </si>
-  <si>
-    <t>rnaSampleNumber</t>
-  </si>
-  <si>
-    <t>s1cDNADate</t>
-  </si>
-  <si>
-    <t>s1cDNAPreparer</t>
-  </si>
-  <si>
-    <t>s1cDNASampleNumber</t>
-  </si>
-  <si>
-    <t>polyAIsolationProtocol</t>
-  </si>
-  <si>
-    <t>s1Protocol</t>
-  </si>
-  <si>
-    <t>roboticS1Prep</t>
-  </si>
-  <si>
-    <t>s1PrimerSeq</t>
-  </si>
-  <si>
-    <t>05.29.19</t>
-  </si>
-  <si>
-    <t>J.PLAGGENBERG</t>
-  </si>
-  <si>
-    <t>05.31.19</t>
-  </si>
-  <si>
-    <t>NEBNextPoly(A)E7490</t>
-  </si>
-  <si>
-    <t>E7760</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>random</t>
+    <t xml:space="preserve">rnaDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnaPreparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnaSampleNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNADate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNAPreparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNASampleNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyAIsolationProtocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roboticS1Prep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1PrimerSeq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.29.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.PLAGGENBERG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.31.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextPoly(A)E7490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,48 +121,85 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -157,15 +231,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1">
-        <v>1.0</v>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -173,8 +247,8 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
-        <v>1.0</v>
+      <c r="F2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
@@ -189,15 +263,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
-        <v>2.0</v>
+      <c r="C3" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -205,8 +279,8 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
-        <v>2.0</v>
+      <c r="F3" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
@@ -221,15 +295,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
-        <v>3.0</v>
+      <c r="C4" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -237,8 +311,8 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1">
-        <v>3.0</v>
+      <c r="F4" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
@@ -253,15 +327,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1">
-        <v>4.0</v>
+      <c r="C5" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -269,8 +343,8 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1">
-        <v>4.0</v>
+      <c r="F5" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
@@ -285,15 +359,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1">
-        <v>5.0</v>
+      <c r="C6" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -301,8 +375,8 @@
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1">
-        <v>5.0</v>
+      <c r="F6" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
@@ -317,15 +391,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
-        <v>6.0</v>
+      <c r="C7" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -333,8 +407,8 @@
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1">
-        <v>6.0</v>
+      <c r="F7" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>13</v>
@@ -349,15 +423,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1">
-        <v>7.0</v>
+      <c r="C8" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -365,8 +439,8 @@
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1">
-        <v>7.0</v>
+      <c r="F8" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>13</v>
@@ -381,15 +455,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
-        <v>8.0</v>
+      <c r="C9" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -397,8 +471,8 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="1">
-        <v>8.0</v>
+      <c r="F9" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -413,15 +487,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1">
-        <v>9.0</v>
+      <c r="C10" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -429,8 +503,8 @@
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1">
-        <v>9.0</v>
+      <c r="F10" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>13</v>
@@ -445,15 +519,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1">
-        <v>10.0</v>
+      <c r="C11" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -461,8 +535,8 @@
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="1">
-        <v>10.0</v>
+      <c r="F11" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>13</v>
@@ -477,15 +551,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
-        <v>11.0</v>
+      <c r="C12" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -493,8 +567,8 @@
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="1">
-        <v>11.0</v>
+      <c r="F12" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>13</v>
@@ -509,15 +583,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
-        <v>12.0</v>
+      <c r="C13" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -525,8 +599,8 @@
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="1">
-        <v>12.0</v>
+      <c r="F13" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
@@ -541,15 +615,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1">
-        <v>13.0</v>
+      <c r="C14" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -557,8 +631,8 @@
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="1">
-        <v>13.0</v>
+      <c r="F14" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>13</v>
@@ -573,15 +647,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1">
-        <v>14.0</v>
+      <c r="C15" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -589,8 +663,8 @@
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="1">
-        <v>14.0</v>
+      <c r="F15" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
@@ -605,15 +679,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1">
-        <v>15.0</v>
+      <c r="C16" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -621,8 +695,8 @@
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="1">
-        <v>15.0</v>
+      <c r="F16" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>13</v>
@@ -637,15 +711,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1">
-        <v>16.0</v>
+      <c r="C17" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -653,8 +727,8 @@
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="1">
-        <v>16.0</v>
+      <c r="F17" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>13</v>
@@ -669,15 +743,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1">
-        <v>17.0</v>
+      <c r="C18" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -685,8 +759,8 @@
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="1">
-        <v>17.0</v>
+      <c r="F18" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>13</v>
@@ -701,15 +775,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="1">
-        <v>18.0</v>
+      <c r="C19" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -717,8 +791,8 @@
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="1">
-        <v>18.0</v>
+      <c r="F19" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
@@ -733,15 +807,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="1">
-        <v>19.0</v>
+      <c r="C20" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
@@ -749,8 +823,8 @@
       <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="1">
-        <v>19.0</v>
+      <c r="F20" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
@@ -765,15 +839,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1">
-        <v>20.0</v>
+      <c r="C21" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
@@ -781,8 +855,8 @@
       <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="1">
-        <v>20.0</v>
+      <c r="F21" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>13</v>
@@ -797,15 +871,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="1">
-        <v>21.0</v>
+      <c r="C22" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
@@ -813,8 +887,8 @@
       <c r="E22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="1">
-        <v>21.0</v>
+      <c r="F22" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>13</v>
@@ -829,15 +903,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="1">
-        <v>22.0</v>
+      <c r="C23" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>12</v>
@@ -845,8 +919,8 @@
       <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="1">
-        <v>22.0</v>
+      <c r="F23" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>13</v>
@@ -861,15 +935,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="1">
-        <v>23.0</v>
+      <c r="C24" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -877,8 +951,8 @@
       <c r="E24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="1">
-        <v>23.0</v>
+      <c r="F24" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>13</v>
@@ -893,15 +967,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="1">
-        <v>24.0</v>
+      <c r="C25" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>12</v>
@@ -909,8 +983,8 @@
       <c r="E25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="1">
-        <v>24.0</v>
+      <c r="F25" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>13</v>
@@ -925,15 +999,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="1">
-        <v>25.0</v>
+      <c r="C26" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>12</v>
@@ -941,8 +1015,8 @@
       <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="1">
-        <v>25.0</v>
+      <c r="F26" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>13</v>
@@ -957,15 +1031,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="1">
-        <v>26.0</v>
+      <c r="C27" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>12</v>
@@ -973,8 +1047,8 @@
       <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="1">
-        <v>26.0</v>
+      <c r="F27" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>13</v>
@@ -989,15 +1063,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="1">
-        <v>27.0</v>
+      <c r="C28" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>12</v>
@@ -1005,8 +1079,8 @@
       <c r="E28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="1">
-        <v>27.0</v>
+      <c r="F28" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>13</v>
@@ -1021,15 +1095,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="1">
-        <v>28.0</v>
+      <c r="C29" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>12</v>
@@ -1037,8 +1111,8 @@
       <c r="E29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="1">
-        <v>28.0</v>
+      <c r="F29" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>13</v>
@@ -1053,15 +1127,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="1">
-        <v>29.0</v>
+      <c r="C30" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>12</v>
@@ -1069,8 +1143,8 @@
       <c r="E30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="1">
-        <v>29.0</v>
+      <c r="F30" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>13</v>
@@ -1085,15 +1159,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="1">
-        <v>30.0</v>
+      <c r="C31" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>12</v>
@@ -1101,8 +1175,8 @@
       <c r="E31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="1">
-        <v>30.0</v>
+      <c r="F31" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>13</v>
@@ -1117,15 +1191,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="1">
-        <v>31.0</v>
+      <c r="C32" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>12</v>
@@ -1133,8 +1207,8 @@
       <c r="E32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="1">
-        <v>31.0</v>
+      <c r="F32" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>13</v>
@@ -1149,15 +1223,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="1">
-        <v>32.0</v>
+      <c r="C33" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>12</v>
@@ -1165,8 +1239,8 @@
       <c r="E33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="1">
-        <v>32.0</v>
+      <c r="F33" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>13</v>
@@ -1181,15 +1255,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="1">
-        <v>33.0</v>
+      <c r="C34" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>12</v>
@@ -1197,8 +1271,8 @@
       <c r="E34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="1">
-        <v>33.0</v>
+      <c r="F34" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>13</v>
@@ -1213,15 +1287,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="1">
-        <v>34.0</v>
+      <c r="C35" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>12</v>
@@ -1229,8 +1303,8 @@
       <c r="E35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="1">
-        <v>34.0</v>
+      <c r="F35" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>13</v>
@@ -1245,15 +1319,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="1">
-        <v>35.0</v>
+      <c r="C36" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>12</v>
@@ -1261,8 +1335,8 @@
       <c r="E36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="1">
-        <v>35.0</v>
+      <c r="F36" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>13</v>
@@ -1277,15 +1351,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="1">
-        <v>36.0</v>
+      <c r="C37" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>12</v>
@@ -1293,8 +1367,8 @@
       <c r="E37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="1">
-        <v>36.0</v>
+      <c r="F37" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>13</v>
@@ -1310,6 +1384,12 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_05.31.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_05.31.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="16">
   <si>
     <t xml:space="preserve">rnaDate</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -77,8 +74,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -158,7 +156,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -168,6 +166,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -190,8 +192,8 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -256,11 +258,11 @@
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="I2" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -288,11 +290,11 @@
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="I3" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -320,11 +322,11 @@
       <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="I4" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -352,11 +354,11 @@
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
+      <c r="I5" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -384,11 +386,11 @@
       <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="I6" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -416,11 +418,11 @@
       <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>15</v>
+      <c r="I7" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,11 +450,11 @@
       <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>15</v>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -480,11 +482,11 @@
       <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>15</v>
+      <c r="I9" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -512,11 +514,11 @@
       <c r="H10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>15</v>
+      <c r="I10" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -544,11 +546,11 @@
       <c r="H11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>15</v>
+      <c r="I11" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -576,11 +578,11 @@
       <c r="H12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>15</v>
+      <c r="I12" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,11 +610,11 @@
       <c r="H13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>15</v>
+      <c r="I13" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,11 +642,11 @@
       <c r="H14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>15</v>
+      <c r="I14" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,11 +674,11 @@
       <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>15</v>
+      <c r="I15" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,11 +706,11 @@
       <c r="H16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>15</v>
+      <c r="I16" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -736,11 +738,11 @@
       <c r="H17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>15</v>
+      <c r="I17" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,11 +770,11 @@
       <c r="H18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>15</v>
+      <c r="I18" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -800,11 +802,11 @@
       <c r="H19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>15</v>
+      <c r="I19" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,11 +834,11 @@
       <c r="H20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>15</v>
+      <c r="I20" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,11 +866,11 @@
       <c r="H21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>15</v>
+      <c r="I21" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -896,11 +898,11 @@
       <c r="H22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>15</v>
+      <c r="I22" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,11 +930,11 @@
       <c r="H23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>15</v>
+      <c r="I23" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -960,11 +962,11 @@
       <c r="H24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>15</v>
+      <c r="I24" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,11 +994,11 @@
       <c r="H25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>15</v>
+      <c r="I25" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1024,11 +1026,11 @@
       <c r="H26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>15</v>
+      <c r="I26" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1056,11 +1058,11 @@
       <c r="H27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>15</v>
+      <c r="I27" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,11 +1090,11 @@
       <c r="H28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>15</v>
+      <c r="I28" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,11 +1122,11 @@
       <c r="H29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>15</v>
+      <c r="I29" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,11 +1154,11 @@
       <c r="H30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>15</v>
+      <c r="I30" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,11 +1186,11 @@
       <c r="H31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>15</v>
+      <c r="I31" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,11 +1218,11 @@
       <c r="H32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>15</v>
+      <c r="I32" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1248,11 +1250,11 @@
       <c r="H33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>15</v>
+      <c r="I33" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1280,11 +1282,11 @@
       <c r="H34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>15</v>
+      <c r="I34" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,11 +1314,11 @@
       <c r="H35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>15</v>
+      <c r="I35" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,11 +1346,11 @@
       <c r="H36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>15</v>
+      <c r="I36" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,11 +1378,11 @@
       <c r="H37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>15</v>
+      <c r="I37" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_05.31.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_05.31.19.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">05.31.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490</t>
+    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
@@ -192,13 +192,15 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_05.31.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_05.31.19.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -61,10 +61,10 @@
     <t xml:space="preserve">05.31.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -192,8 +192,8 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -260,7 +260,8 @@
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="b">
+      <c r="I2" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -292,7 +293,8 @@
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="b">
+      <c r="I3" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -324,7 +326,8 @@
       <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3" t="b">
+      <c r="I4" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -356,7 +359,8 @@
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="3" t="b">
+      <c r="I5" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -388,7 +392,8 @@
       <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="3" t="b">
+      <c r="I6" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -420,7 +425,8 @@
       <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="3" t="b">
+      <c r="I7" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -452,7 +458,8 @@
       <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="b">
+      <c r="I8" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -484,7 +491,8 @@
       <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="3" t="b">
+      <c r="I9" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -516,7 +524,8 @@
       <c r="H10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="3" t="b">
+      <c r="I10" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -548,7 +557,8 @@
       <c r="H11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="3" t="b">
+      <c r="I11" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -580,7 +590,8 @@
       <c r="H12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="3" t="b">
+      <c r="I12" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -612,7 +623,8 @@
       <c r="H13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="3" t="b">
+      <c r="I13" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -644,7 +656,8 @@
       <c r="H14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="3" t="b">
+      <c r="I14" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -676,7 +689,8 @@
       <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="3" t="b">
+      <c r="I15" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -708,7 +722,8 @@
       <c r="H16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="3" t="b">
+      <c r="I16" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -740,7 +755,8 @@
       <c r="H17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="3" t="b">
+      <c r="I17" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -772,7 +788,8 @@
       <c r="H18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="3" t="b">
+      <c r="I18" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -804,7 +821,8 @@
       <c r="H19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="3" t="b">
+      <c r="I19" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -836,7 +854,8 @@
       <c r="H20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="3" t="b">
+      <c r="I20" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -868,7 +887,8 @@
       <c r="H21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="3" t="b">
+      <c r="I21" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -900,7 +920,8 @@
       <c r="H22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="3" t="b">
+      <c r="I22" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -932,7 +953,8 @@
       <c r="H23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="3" t="b">
+      <c r="I23" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -964,7 +986,8 @@
       <c r="H24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="3" t="b">
+      <c r="I24" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -996,7 +1019,8 @@
       <c r="H25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="3" t="b">
+      <c r="I25" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1028,7 +1052,8 @@
       <c r="H26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="3" t="b">
+      <c r="I26" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1060,7 +1085,8 @@
       <c r="H27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="3" t="b">
+      <c r="I27" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -1092,7 +1118,8 @@
       <c r="H28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="3" t="b">
+      <c r="I28" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -1124,7 +1151,8 @@
       <c r="H29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="3" t="b">
+      <c r="I29" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -1156,7 +1184,8 @@
       <c r="H30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="3" t="b">
+      <c r="I30" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -1188,7 +1217,8 @@
       <c r="H31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="3" t="b">
+      <c r="I31" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -1220,7 +1250,8 @@
       <c r="H32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="3" t="b">
+      <c r="I32" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -1252,7 +1283,8 @@
       <c r="H33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="3" t="b">
+      <c r="I33" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -1284,7 +1316,8 @@
       <c r="H34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="3" t="b">
+      <c r="I34" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -1316,7 +1349,8 @@
       <c r="H35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="3" t="b">
+      <c r="I35" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -1348,7 +1382,8 @@
       <c r="H36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="3" t="b">
+      <c r="I36" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -1380,7 +1415,8 @@
       <c r="H37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="3" t="b">
+      <c r="I37" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_05.31.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_05.31.19.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/s1cDNASample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CB63C9-C38E-7E43-AA5F-DD2E7F7F45E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21260" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="s1CDNASample_J.PLAGGENBERG_05.3" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="s1CDNASample_J.PLAGGENBERG_05.3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -22,96 +35,77 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="16">
   <si>
-    <t xml:space="preserve">rnaDate</t>
+    <t>rnaDate</t>
   </si>
   <si>
-    <t xml:space="preserve">rnaPreparer</t>
+    <t>rnaPreparer</t>
   </si>
   <si>
-    <t xml:space="preserve">rnaSampleNumber</t>
+    <t>rnaSampleNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">s1cDNADate</t>
+    <t>s1cDNADate</t>
   </si>
   <si>
-    <t xml:space="preserve">s1cDNAPreparer</t>
+    <t>s1cDNAPreparer</t>
   </si>
   <si>
-    <t xml:space="preserve">s1cDNASampleNumber</t>
+    <t>s1cDNASampleNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">polyAIsolationProtocol</t>
+    <t>polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t>s1Protocol</t>
   </si>
   <si>
-    <t xml:space="preserve">roboticS1Prep</t>
+    <t>roboticS1Prep</t>
   </si>
   <si>
-    <t xml:space="preserve">s1PrimerSeq</t>
+    <t>s1PrimerSeq</t>
   </si>
   <si>
-    <t xml:space="preserve">05.29.19</t>
+    <t>05.29.19</t>
   </si>
   <si>
-    <t xml:space="preserve">J.PLAGGENBERG</t>
+    <t>J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">05.31.19</t>
+    <t>05.31.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
+    <t>random</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t>E7420L</t>
   </si>
   <si>
-    <t xml:space="preserve">random</t>
+    <t>E7490L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +117,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -131,79 +125,343 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.43"/>
+    <col min="1" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -235,14 +493,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -251,30 +509,30 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -283,30 +541,30 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -315,30 +573,30 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -347,30 +605,30 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="1">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -379,30 +637,30 @@
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -411,30 +669,30 @@
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -443,30 +701,30 @@
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="1">
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -475,30 +733,30 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="1">
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -507,30 +765,30 @@
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="1">
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -539,30 +797,30 @@
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="1">
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -571,30 +829,30 @@
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="1">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -603,30 +861,30 @@
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="1">
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -635,30 +893,30 @@
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="1">
         <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -667,30 +925,30 @@
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="1">
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -699,30 +957,30 @@
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="1">
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -731,30 +989,30 @@
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="1">
         <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -763,30 +1021,30 @@
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="1">
         <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -795,30 +1053,30 @@
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="1">
         <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -827,30 +1085,30 @@
       <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="1">
         <v>19</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -859,30 +1117,30 @@
       <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="1">
         <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -891,30 +1149,30 @@
       <c r="E22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="1">
         <v>21</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -923,30 +1181,30 @@
       <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="1">
         <v>22</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -955,30 +1213,30 @@
       <c r="E24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="1">
         <v>23</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="1">
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -987,30 +1245,30 @@
       <c r="E25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="F25" s="1">
         <v>24</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="1">
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1019,30 +1277,30 @@
       <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="F26" s="1">
         <v>25</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="1">
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1051,30 +1309,30 @@
       <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F27" s="1">
         <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="1">
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1083,30 +1341,30 @@
       <c r="E28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28" s="1">
         <v>27</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="1">
         <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1115,30 +1373,30 @@
       <c r="E29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="F29" s="1">
         <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="1">
         <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1147,30 +1405,30 @@
       <c r="E30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F30" s="1">
         <v>29</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="1">
         <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1179,30 +1437,30 @@
       <c r="E31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="1" t="n">
+      <c r="F31" s="1">
         <v>30</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="1">
         <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1211,30 +1469,30 @@
       <c r="E32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F32" s="1">
         <v>31</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="1">
         <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1243,30 +1501,30 @@
       <c r="E33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="F33" s="1">
         <v>32</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="1">
         <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1275,30 +1533,30 @@
       <c r="E34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="1" t="n">
+      <c r="F34" s="1">
         <v>33</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="1">
         <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1307,30 +1565,30 @@
       <c r="E35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="1" t="n">
+      <c r="F35" s="1">
         <v>34</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="1">
         <v>35</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1339,30 +1597,30 @@
       <c r="E36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="1" t="n">
+      <c r="F36" s="1">
         <v>35</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="1">
         <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1371,29 +1629,24 @@
       <c r="E37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="F37" s="1">
         <v>36</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="3" t="b">
+        <v>15</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_05.31.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_05.31.19.xlsx
@@ -1,30 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/s1cDNASample/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CB63C9-C38E-7E43-AA5F-DD2E7F7F45E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21260" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="s1CDNASample_J.PLAGGENBERG_05.3" sheetId="1" r:id="rId1"/>
+    <sheet name="s1CDNASample_J.PLAGGENBERG_05.3" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -35,77 +22,103 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="16">
   <si>
-    <t>rnaDate</t>
-  </si>
-  <si>
-    <t>rnaPreparer</t>
-  </si>
-  <si>
-    <t>rnaSampleNumber</t>
-  </si>
-  <si>
-    <t>s1cDNADate</t>
-  </si>
-  <si>
-    <t>s1cDNAPreparer</t>
-  </si>
-  <si>
-    <t>s1cDNASampleNumber</t>
-  </si>
-  <si>
-    <t>polyAIsolationProtocol</t>
-  </si>
-  <si>
-    <t>s1Protocol</t>
-  </si>
-  <si>
-    <t>roboticS1Prep</t>
-  </si>
-  <si>
-    <t>s1PrimerSeq</t>
-  </si>
-  <si>
-    <t>05.29.19</t>
-  </si>
-  <si>
-    <t>J.PLAGGENBERG</t>
-  </si>
-  <si>
-    <t>05.31.19</t>
-  </si>
-  <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>E7420L</t>
-  </si>
-  <si>
-    <t>E7490L</t>
+    <t xml:space="preserve">rnaDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnaPreparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnaSampleNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNADate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNAPreparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNASampleNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyAIsolationProtocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNAProtocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roboticS1Prep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1PrimerSeq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.29.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.PLAGGENBERG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.31.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,7 +130,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -125,343 +138,84 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="1025" width="14.5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +237,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -493,14 +247,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -509,30 +263,31 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="b">
+      <c r="I2" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -541,30 +296,31 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="2" t="b">
+      <c r="I3" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -573,30 +329,31 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="2" t="b">
+      <c r="I4" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -605,30 +362,31 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="2" t="b">
+      <c r="I5" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -637,30 +395,31 @@
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="2" t="b">
+      <c r="I6" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -669,30 +428,31 @@
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="2" t="b">
+      <c r="I7" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -701,30 +461,31 @@
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="2" t="b">
+      <c r="I8" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -733,30 +494,31 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="2" t="b">
+      <c r="I9" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -765,30 +527,31 @@
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="2" t="b">
+      <c r="I10" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -797,30 +560,31 @@
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="2" t="b">
+      <c r="I11" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -829,30 +593,31 @@
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="2" t="b">
+      <c r="I12" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -861,30 +626,31 @@
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="2" t="b">
+      <c r="I13" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -893,30 +659,31 @@
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="2" t="b">
+      <c r="I14" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -925,30 +692,31 @@
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="2" t="b">
+      <c r="I15" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -957,30 +725,31 @@
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="2" t="b">
+      <c r="I16" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -989,30 +758,31 @@
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="2" t="b">
+      <c r="I17" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="1" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1021,30 +791,31 @@
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="1" t="n">
         <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="2" t="b">
+      <c r="I18" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1053,30 +824,31 @@
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="2" t="b">
+      <c r="I19" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="1" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1085,30 +857,31 @@
       <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="1" t="n">
         <v>19</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="2" t="b">
+      <c r="I20" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="1" t="n">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1117,30 +890,31 @@
       <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="1" t="n">
         <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="2" t="b">
+      <c r="I21" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="1" t="n">
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1149,30 +923,31 @@
       <c r="E22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="1" t="n">
         <v>21</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="2" t="b">
+      <c r="I22" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="1" t="n">
         <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1181,30 +956,31 @@
       <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="1" t="n">
         <v>22</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="2" t="b">
+      <c r="I23" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="1" t="n">
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1213,30 +989,31 @@
       <c r="E24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="1" t="n">
         <v>23</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="2" t="b">
+      <c r="I24" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="1" t="n">
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1245,30 +1022,31 @@
       <c r="E25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="1" t="n">
         <v>24</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="2" t="b">
+      <c r="I25" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="1" t="n">
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1277,30 +1055,31 @@
       <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="1" t="n">
         <v>25</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="2" t="b">
+      <c r="I26" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="1" t="n">
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1309,30 +1088,31 @@
       <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="1" t="n">
         <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="2" t="b">
+      <c r="I27" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="1" t="n">
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1341,30 +1121,31 @@
       <c r="E28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="1" t="n">
         <v>27</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="2" t="b">
+      <c r="I28" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="1" t="n">
         <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1373,30 +1154,31 @@
       <c r="E29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="1" t="n">
         <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="2" t="b">
+      <c r="I29" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="1" t="n">
         <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1405,30 +1187,31 @@
       <c r="E30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="1" t="n">
         <v>29</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="2" t="b">
+      <c r="I30" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="1" t="n">
         <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1437,30 +1220,31 @@
       <c r="E31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="1" t="n">
         <v>30</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="2" t="b">
+      <c r="I31" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="1" t="n">
         <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1469,30 +1253,31 @@
       <c r="E32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="1" t="n">
         <v>31</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="2" t="b">
+      <c r="I32" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="1" t="n">
         <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1501,30 +1286,31 @@
       <c r="E33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="1" t="n">
         <v>32</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="2" t="b">
+      <c r="I33" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="1" t="n">
         <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1533,30 +1319,31 @@
       <c r="E34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="1" t="n">
         <v>33</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="2" t="b">
+      <c r="I34" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="1" t="n">
         <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1565,30 +1352,31 @@
       <c r="E35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="1" t="n">
         <v>34</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="2" t="b">
+      <c r="I35" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="1" t="n">
         <v>35</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1597,30 +1385,31 @@
       <c r="E36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="1" t="n">
         <v>35</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="2" t="b">
+      <c r="I36" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="1" t="n">
         <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1629,24 +1418,30 @@
       <c r="E37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="1" t="n">
         <v>36</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="2" t="b">
+      <c r="I37" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>